--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -608,40 +608,40 @@
                   <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>35.0</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>30.0</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>28.0</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1813,7 @@
   <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2068,7 +2068,7 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -2079,7 +2079,7 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -2112,7 +2112,7 @@
         <v>14</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -2134,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -2145,7 +2145,7 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
@@ -2156,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
@@ -2178,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
